--- a/src/main/java/resources/testdata/login.xlsx
+++ b/src/main/java/resources/testdata/login.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Personal\AutomationTraining\DEMO\seleniumFramwork\src\main\java\resources\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D905C136-186F-42C3-9952-05386F352560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6E77DD6E-7393-4B0E-8370-C930EBBF3A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35775" yWindow="3375" windowWidth="17280" windowHeight="8880" xr2:uid="{9E9EBAF5-B813-489B-A927-243146328013}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9E9EBAF5-B813-489B-A927-243146328013}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -451,7 +447,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
